--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2248824.334713718</v>
+        <v>2244442.422297552</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.03528792</v>
+        <v>9964927.035287926</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.782371724</v>
+        <v>430763.7823717226</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100.6254937447912</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.28354595507055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>7.634490799661691</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>28.58908008913033</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>117.3399053404213</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>57.40269508437938</v>
+        <v>160.9608410339006</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>173.7084296507921</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>33.21446231455179</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>120.4120358099645</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>110.0115294480441</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1587,7 +1587,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>27.51419966590033</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>158.5894025251585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>161.8785837315323</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>116.2771247230826</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.6996584317337</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.61400032385792</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>22.91198480680583</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>148.1834952849962</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>205.7736450358486</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5416031034313</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>225.9151016152964</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>103.1983720868922</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>54.337434745728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>44.70865474367271</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>156.7177147119996</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>2.11938795570433</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>232.9304707805321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>90.75605730520739</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.80457674440903</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>266.5548834797414</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>181.2169243587787</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081998</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561464</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
         <v>188.3907690366107</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>27.51419966589268</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108389</v>
+        <v>2.119387955707412</v>
       </c>
       <c r="S46" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4194,7 +4194,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.195303554219</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.195303554219</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1465.195303554219</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.195303554219</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245972</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245972</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>363.7239216122614</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>215.8108280298683</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>720.4173773380891</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.753525949916</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.753525949916</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925728</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949916</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>444.0275768541695</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>293.9109374418338</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>293.9109374418338</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>293.9109374418338</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541695</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1121.052642832205</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C8" t="n">
-        <v>1121.052642832205</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>1121.052642832205</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1121.052642832205</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>710.0667380425973</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y8" t="n">
-        <v>1507.652482896327</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>175.5713008203286</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5029,10 +5029,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160703</v>
@@ -5059,10 +5059,10 @@
         <v>3603.645964259458</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149658</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L12" t="n">
-        <v>915.089423558717</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.571598885108</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.667562284444</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284444</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.9880822788404</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C13" t="n">
-        <v>553.0518993509335</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D13" t="n">
-        <v>402.9352599385978</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E13" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160703</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.835847187588</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.418677150627</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.42912625261</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.6365471090801</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5278,25 +5278,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
         <v>4566.333620403613</v>
@@ -5320,10 +5320,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5366,19 +5366,19 @@
         <v>1063.776437885085</v>
       </c>
       <c r="M15" t="n">
-        <v>1063.776437885085</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N15" t="n">
-        <v>1321.464883050339</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.572732449257</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C16" t="n">
-        <v>782.572732449257</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D16" t="n">
-        <v>632.4560930369213</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E16" t="n">
-        <v>632.4560930369213</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>2178.382964033126</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>1889.306750347853</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1634.622262141966</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="W16" t="n">
-        <v>1345.205092105005</v>
+        <v>1448.070143066773</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.013776423027</v>
+        <v>1220.080592168756</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.2211972794968</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
@@ -5521,22 +5521,22 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
@@ -5591,28 +5591,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L18" t="n">
-        <v>915.089423558717</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M18" t="n">
-        <v>1356.791087284249</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.6593445000771</v>
+        <v>678.2659052086697</v>
       </c>
       <c r="C19" t="n">
-        <v>641.7231615721702</v>
+        <v>509.3297222807628</v>
       </c>
       <c r="D19" t="n">
-        <v>491.6065221598345</v>
+        <v>359.213082868427</v>
       </c>
       <c r="E19" t="n">
-        <v>343.6934285774414</v>
+        <v>211.2999892860339</v>
       </c>
       <c r="F19" t="n">
-        <v>343.6934285774414</v>
+        <v>211.2999892860339</v>
       </c>
       <c r="G19" t="n">
-        <v>176.4792337520202</v>
+        <v>211.2999892860339</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5700,25 +5700,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W19" t="n">
-        <v>1414.943479856348</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X19" t="n">
-        <v>1186.953928958331</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y19" t="n">
-        <v>992.3078093303168</v>
+        <v>859.9143700389094</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
@@ -5764,16 +5764,16 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5831,25 +5831,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953583</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.599035247486</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N21" t="n">
-        <v>1798.694998646822</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>932.2078141341359</v>
+        <v>723.0852658456174</v>
       </c>
       <c r="C22" t="n">
-        <v>763.271631206229</v>
+        <v>699.9418468488439</v>
       </c>
       <c r="D22" t="n">
-        <v>613.1549917938933</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E22" t="n">
-        <v>465.2418982115001</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F22" t="n">
-        <v>318.3519507135898</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5949,13 +5949,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1414.943479856348</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1186.953928958331</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.1613498148005</v>
+        <v>904.7337306758571</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160599</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160599</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507189</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384007</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944175</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883213</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800319</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259457</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413342</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885085</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.794792137213</v>
+        <v>833.5146841555804</v>
       </c>
       <c r="N24" t="n">
-        <v>1655.794792137213</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284444</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.25108071052</v>
+        <v>2422.070640981186</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>697.7383010189012</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6177,22 +6177,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>1970.530797330249</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.530797330249</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.846309124362</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.429139087401</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.439588189384</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.439588189384</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6217,37 +6217,37 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892018</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6265,13 +6265,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413342</v>
+        <v>474.5240650264058</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885085</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="M27" t="n">
-        <v>1063.776437885085</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.872401284422</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O27" t="n">
-        <v>2232.748876284616</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.6593445000771</v>
+        <v>931.4286679837295</v>
       </c>
       <c r="C28" t="n">
-        <v>641.7231615721702</v>
+        <v>762.4924850558226</v>
       </c>
       <c r="D28" t="n">
-        <v>491.6065221598345</v>
+        <v>612.3758456434869</v>
       </c>
       <c r="E28" t="n">
-        <v>343.6934285774414</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="F28" t="n">
-        <v>343.6934285774414</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1958.704181747508</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1730.507109408825</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="W28" t="n">
-        <v>1441.089939371864</v>
+        <v>1380.210798025277</v>
       </c>
       <c r="X28" t="n">
-        <v>1213.100388473847</v>
+        <v>1152.22124712726</v>
       </c>
       <c r="Y28" t="n">
-        <v>992.3078093303168</v>
+        <v>931.4286679837295</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6542,28 +6542,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L30" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.464883050339</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050339</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.3053695472213</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>780.3691866193144</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D31" t="n">
-        <v>780.3691866193144</v>
+        <v>344.979075535267</v>
       </c>
       <c r="E31" t="n">
-        <v>632.4560930369213</v>
+        <v>344.979075535267</v>
       </c>
       <c r="F31" t="n">
-        <v>485.566145539011</v>
+        <v>198.0891280373567</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>2178.382964033126</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>1889.306750347853</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>1634.622262141966</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>1579.735964419008</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>1351.746413520991</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.953834377461</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6721,7 +6721,7 @@
         <v>4151.951912946806</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6776,31 +6776,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>242.5353624779755</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>733.2676953217267</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>1325.286049573854</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.026157035586</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O33" t="n">
-        <v>2098.90263203578</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2963.969901177984</v>
+        <v>557.5875721598175</v>
       </c>
       <c r="C34" t="n">
-        <v>2963.969901177984</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D34" t="n">
-        <v>2813.853261765648</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E34" t="n">
-        <v>2665.940168183255</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F34" t="n">
-        <v>2665.940168183255</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G34" t="n">
-        <v>2498.725973357834</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>4692.417407580351</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>4647.25715026351</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>4427.578367977892</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>4138.502154292619</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>3883.817666086732</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>3594.400496049771</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>3366.410945151754</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>3145.618366008224</v>
+        <v>739.2360369900572</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6943,46 +6943,46 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>2380.101382788038</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>2380.101382788038</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>2380.101382788038</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>2972.119737040166</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N36" t="n">
-        <v>3594.215700439502</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O36" t="n">
-        <v>4141.092175439696</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
-        <v>4426.529929361194</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>4657.091203346441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599890956</v>
       </c>
       <c r="C37" t="n">
-        <v>930.4858260316502</v>
+        <v>394.0188770611887</v>
       </c>
       <c r="D37" t="n">
-        <v>780.3691866193144</v>
+        <v>243.902237648853</v>
       </c>
       <c r="E37" t="n">
-        <v>632.4560930369213</v>
+        <v>95.98914406645989</v>
       </c>
       <c r="F37" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7107,40 +7107,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074625</v>
+        <v>2246.242309074622</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789007</v>
+        <v>2026.563526789004</v>
       </c>
       <c r="U37" t="n">
-        <v>2026.563526789007</v>
+        <v>1737.48731310373</v>
       </c>
       <c r="V37" t="n">
-        <v>1791.280222970287</v>
+        <v>1482.802824897843</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.863052933327</v>
+        <v>1193.385654860883</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.863052933327</v>
+        <v>965.3961039628655</v>
       </c>
       <c r="Y37" t="n">
-        <v>1281.070473789797</v>
+        <v>744.6035248193353</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
         <v>1205.244725685964</v>
@@ -7189,10 +7189,10 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
         <v>4566.333620403613</v>
@@ -7219,7 +7219,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7259,22 +7259,22 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>929.9301936362499</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>929.9301936362499</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.026157035586</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="O39" t="n">
-        <v>2098.90263203578</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C40" t="n">
-        <v>930.4858260316502</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="D40" t="n">
-        <v>780.3691866193144</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369213</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F40" t="n">
-        <v>485.566145539011</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
         <v>176.4792337520202</v>
@@ -7356,28 +7356,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S40" t="n">
-        <v>2361.553154294196</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T40" t="n">
-        <v>2361.553154294196</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U40" t="n">
-        <v>2092.305797243952</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.621309038065</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W40" t="n">
-        <v>1548.204139001105</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X40" t="n">
-        <v>1320.214588103087</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y40" t="n">
-        <v>1099.422008959557</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
@@ -7499,19 +7499,19 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1321.464883050339</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="N42" t="n">
-        <v>1321.464883050339</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O42" t="n">
-        <v>1868.341358050533</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P42" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3047.2996287964</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C43" t="n">
-        <v>2878.363445868493</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.246806456157</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.246806456157</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F43" t="n">
-        <v>2581.356858958247</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>2581.356858958247</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>4624.558062538853</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>4624.558062538853</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.879280253235</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.831881911035</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V43" t="n">
-        <v>3967.147393705148</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W43" t="n">
-        <v>3677.730223668187</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X43" t="n">
-        <v>3449.74067277017</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y43" t="n">
-        <v>3228.94809362664</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963558</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610263</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297609</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
         <v>4405.740996026519</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7727,37 +7727,37 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>424.3570907149644</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L45" t="n">
-        <v>915.0894235587139</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M45" t="n">
-        <v>1507.107777810839</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.203741210174</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O45" t="n">
-        <v>2134.228836269692</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
         <v>2016.877442379908</v>
@@ -7769,7 +7769,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.876178449477</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>749.7802031534795</v>
+        <v>560.8142640742427</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8440202255726</v>
+        <v>391.8780811463358</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7273808132369</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E46" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F46" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
         <v>93.84834815160703</v>
@@ -7806,52 +7806,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117233</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948564</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139315</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782253</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2361.553154294189</v>
+        <v>2427.271703420839</v>
       </c>
       <c r="S46" t="n">
-        <v>2178.382964033119</v>
+        <v>2244.101513159769</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747501</v>
+        <v>2024.422730874151</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062227</v>
+        <v>1735.346517188878</v>
       </c>
       <c r="V46" t="n">
-        <v>1669.627968062227</v>
+        <v>1480.662028982991</v>
       </c>
       <c r="W46" t="n">
-        <v>1380.210798025267</v>
+        <v>1191.24485894603</v>
       </c>
       <c r="X46" t="n">
-        <v>1152.221247127249</v>
+        <v>963.2553080480126</v>
       </c>
       <c r="Y46" t="n">
-        <v>931.4286679837193</v>
+        <v>742.4627289044824</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>51.31264782909216</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>51.31264782908278</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>51.31264782911035</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>224.6234436579277</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>67.12025286387868</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.70606962056246</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>24.17686506887131</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.88499492036112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.2179798580794</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>144.334836291822</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>17.35855759217068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>11.70834942691317</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20.89235954313787</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>26.22254170853159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.34368079027476</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>232.185563590863</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440903</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>136.6298336147863</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>61.86693864009519</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.3016600672269</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>19.20717254329588</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>76.49076379342044</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>19.630568068679</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9685271896417</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.9197629806765</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.06136363537615</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831834.4444858689</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858691</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>831834.444485869</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.4444858689</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>831834.4444858691</v>
+        <v>831834.444485869</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.1584109553</v>
       </c>
       <c r="F2" t="n">
+        <v>584845.1584109551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>584845.1584109551</v>
+      </c>
+      <c r="H2" t="n">
         <v>584845.1584109553</v>
       </c>
-      <c r="G2" t="n">
-        <v>584845.1584109553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>584845.158410955</v>
-      </c>
       <c r="I2" t="n">
-        <v>584845.1584109553</v>
+        <v>584845.1584109555</v>
       </c>
       <c r="J2" t="n">
         <v>584845.1584109553</v>
       </c>
       <c r="K2" t="n">
-        <v>584845.1584109553</v>
+        <v>584845.1584109555</v>
       </c>
       <c r="L2" t="n">
         <v>584845.1584109553</v>
       </c>
       <c r="M2" t="n">
-        <v>584845.1584109551</v>
+        <v>584845.1584109553</v>
       </c>
       <c r="N2" t="n">
-        <v>584845.1584109551</v>
+        <v>584845.1584109555</v>
       </c>
       <c r="O2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.1584109555</v>
       </c>
       <c r="P2" t="n">
-        <v>584845.158410955</v>
+        <v>584845.1584109555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925941</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-9.060191772490113e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,31 +26420,31 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.97189485512</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="F4" t="n">
         <v>5781.971894855114</v>
       </c>
       <c r="G4" t="n">
+        <v>5781.971894855158</v>
+      </c>
+      <c r="H4" t="n">
         <v>5781.971894855114</v>
       </c>
-      <c r="H4" t="n">
-        <v>5781.971894855116</v>
-      </c>
       <c r="I4" t="n">
-        <v>5781.971894855133</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855154</v>
+        <v>5781.971894855002</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855006</v>
       </c>
       <c r="L4" t="n">
         <v>5781.971894855114</v>
@@ -26453,13 +26453,13 @@
         <v>5781.971894855114</v>
       </c>
       <c r="N4" t="n">
+        <v>5781.97189485518</v>
+      </c>
+      <c r="O4" t="n">
         <v>5781.971894855114</v>
       </c>
-      <c r="O4" t="n">
-        <v>5781.971894855116</v>
-      </c>
       <c r="P4" t="n">
-        <v>5781.971894855385</v>
+        <v>5781.971894855114</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26493,10 +26493,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278636.1800540808</v>
+        <v>-278636.1800540806</v>
       </c>
       <c r="C6" t="n">
-        <v>311331.6991604637</v>
+        <v>311331.6991604638</v>
       </c>
       <c r="D6" t="n">
-        <v>311331.6991604643</v>
+        <v>311331.6991604639</v>
       </c>
       <c r="E6" t="n">
-        <v>-458376.5183956505</v>
+        <v>-458735.4882142937</v>
       </c>
       <c r="F6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402183</v>
       </c>
       <c r="G6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402183</v>
       </c>
       <c r="H6" t="n">
-        <v>478133.1470588613</v>
+        <v>477774.1772402186</v>
       </c>
       <c r="I6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402187</v>
       </c>
       <c r="J6" t="n">
-        <v>301709.9278662688</v>
+        <v>301350.9580476246</v>
       </c>
       <c r="K6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402187</v>
       </c>
       <c r="L6" t="n">
-        <v>478133.1470588617</v>
+        <v>477774.1772402197</v>
       </c>
       <c r="M6" t="n">
-        <v>353825.9356687242</v>
+        <v>353466.9658500814</v>
       </c>
       <c r="N6" t="n">
-        <v>478133.1470588614</v>
+        <v>477774.1772402187</v>
       </c>
       <c r="O6" t="n">
-        <v>478133.1470588616</v>
+        <v>477774.1772402187</v>
       </c>
       <c r="P6" t="n">
-        <v>478133.1470588637</v>
+        <v>477774.1772402187</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26761,10 +26761,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716386</v>
@@ -26779,7 +26779,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-3.945142077645401e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.887189708236192e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>281.3048763274705</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1375020678607</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>210.9501625524331</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>326.0939615315526</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>264.5904647318405</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.9071071746715</v>
+        <v>6.348961225150362</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>240.0757403700029</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>218.0097051937375</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>26.02192683660464</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>102.1340095019748</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.877740501153098e-12</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>512.3180494032208</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,22 +32086,22 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>391.6330708361149</v>
+        <v>486.0296793139992</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32311,10 +32311,10 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>471.6886536848224</v>
@@ -32323,19 +32323,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>588.2973306144753</v>
+        <v>466.4405777716653</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>361.6013389488608</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504301</v>
@@ -32566,13 +32566,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>672.4508727916136</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,31 +32785,31 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>392.9727799466978</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
         <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>273.0542121815567</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>373.222989603604</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>422.5979166842698</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M30" t="n">
-        <v>552.614296034768</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>487.0792071670485</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,13 +33496,13 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745724</v>
@@ -33511,19 +33511,19 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>360.3721236608403</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.2575834086216</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
         <v>55.91171011122282</v>
@@ -33666,7 +33666,7 @@
         <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293309</v>
       </c>
       <c r="N35" t="n">
         <v>974.1453645229608</v>
@@ -33681,7 +33681,7 @@
         <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
@@ -33730,7 +33730,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,34 +33739,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>615.6579511813127</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>422.2953709713993</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33812,7 +33812,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33824,7 +33824,7 @@
         <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
         <v>374.7525405416874</v>
@@ -33979,25 +33979,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>500.0949062136501</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>489.7119024980491</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.2575834086216</v>
@@ -34219,7 +34219,7 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>403.474920527853</v>
+        <v>672.0481308502337</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
@@ -34231,10 +34231,10 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.2575834086216</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.45946150237741</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122266</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874051</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083041</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364238</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.633669529328</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229579</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086925</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687501</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148589</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987153</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854254</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901927</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540897</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>471.688653684821</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504279</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927616</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>147.6720980399178</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982437</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273328</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900878</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640608</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265011</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416864</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851316</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>370.1840154812025</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
@@ -35667,7 +35667,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
         <v>127.3573607845841</v>
@@ -35734,22 +35734,22 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2913587527817</v>
+        <v>354.6879672306659</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
         <v>728.287436302058</v>
@@ -35907,7 +35907,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>333.8472147104634</v>
@@ -35971,19 +35971,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>446.163296692457</v>
+        <v>324.306543849647</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>796.0449487554608</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
         <v>689.7596327870084</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>223.0469591689865</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284117</v>
@@ -36214,13 +36214,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>529.8546283471692</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>605.157040442575</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
         <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>250.3765355022533</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
         <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>133.0724380955352</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>525.686772867146</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>235.381550629245</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>288.6235092699395</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K29" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M30" t="n">
-        <v>410.4802621127497</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>355.7374950837152</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,10 +37089,10 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946982</v>
@@ -37159,19 +37159,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>229.030411577507</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020582</v>
       </c>
       <c r="N35" t="n">
         <v>744.7323009263698</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>484.3162390979793</v>
       </c>
       <c r="O36" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.320963557069</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,19 +37472,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209129</v>
       </c>
       <c r="O37" t="n">
         <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,13 +37557,13 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P38" t="n">
         <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
         <v>127.3573607845841</v>
@@ -37627,25 +37627,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>361.5405264337759</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311491</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
         <v>744.7323009263698</v>
@@ -37803,7 +37803,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>261.3408866058347</v>
+        <v>529.9140969282154</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380604</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020553</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263671</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>741.0722806161161</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404094</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845831</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>333.847214710462</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284097</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094283</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>5.075853595473396</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839135</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066001</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642049</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883417</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606349</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044793</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
